--- a/basedados/Base_de_dados-Opuline.xlsx
+++ b/basedados/Base_de_dados-Opuline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campeaolub-my.sharepoint.com/personal/aux_analise_campeaolub_onmicrosoft_com/Documents/Documentos/GitHub/Projeto-Opuline-AnaliseDados/basedados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3C67BE85-B0A6-49BE-B877-4AF79EBDA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3067A6D0-4E7C-4B46-8153-DA35CD3ECF1A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3C67BE85-B0A6-49BE-B877-4AF79EBDA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024A7991-DA09-4DE0-BFA5-B14E01286D8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{504C811E-5E10-42CF-9B4C-CB41504E2E72}"/>
   </bookViews>
@@ -1860,6 +1860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
